--- a/data/trans_orig/Barthel-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Barthel-Edad-trans_orig.xlsx
@@ -681,7 +681,7 @@
         <v>97.55948171498277</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>97.44710518878458</v>
+        <v>97.44710518878459</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>98.28279374112968</v>
@@ -693,7 +693,7 @@
         <v>97.95507382675608</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>97.86855445532537</v>
+        <v>97.86855445532535</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>97.43165940554844</v>
+        <v>97.6674731032424</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>95.73639152833455</v>
+        <v>95.76835839017397</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>97.2735314595279</v>
+        <v>97.39724954813052</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>97.5842986382536</v>
+        <v>97.51460717722762</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>96.68161950799799</v>
+        <v>96.63059214647171</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>95.31763138138102</v>
+        <v>95.23238556280754</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>96.55696537191265</v>
+        <v>96.60943252853912</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>96.83206707212391</v>
+        <v>96.75461241162907</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>97.5240121697389</v>
+        <v>97.4786067407039</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>96.0088678422028</v>
+        <v>96.00779046841279</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>97.23120673391536</v>
+        <v>97.25292674350557</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>97.40113415988192</v>
+        <v>97.40613786354412</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>99.33748294404754</v>
+        <v>99.3683099862683</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>98.34168191864607</v>
+        <v>98.40435475825888</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>98.96326845237517</v>
+        <v>99.02387531630076</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>98.81792455295144</v>
+        <v>98.78146601783392</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>98.6046015232463</v>
+        <v>98.59451272254896</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>97.61958304643485</v>
+        <v>97.6589009549959</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>98.27199227163713</v>
+        <v>98.251361531965</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>98.00652858328147</v>
+        <v>97.94592311550527</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>98.76172766460557</v>
+        <v>98.80925950588407</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>97.73419932560135</v>
+        <v>97.69881812234914</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>98.40075367291647</v>
+        <v>98.42138868845983</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>98.22658721167925</v>
+        <v>98.24538785300041</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>93.58013102107667</v>
+        <v>93.51821763897499</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>89.23992258229734</v>
+        <v>89.56877791134799</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>91.41020155485518</v>
+        <v>91.21749800237477</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>92.63125284695803</v>
+        <v>92.50312601811208</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>91.23164846257771</v>
+        <v>91.07385534145646</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>84.03422107424316</v>
+        <v>83.90715822307511</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>87.28733082808785</v>
+        <v>87.42556636876402</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>86.07180776140109</v>
+        <v>85.87731415011984</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>92.6871849031694</v>
+        <v>92.58072107080883</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>86.85130111122892</v>
+        <v>86.89146908372287</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>89.47003603724468</v>
+        <v>89.74009287246329</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>88.87244060278448</v>
+        <v>89.04249246931998</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>96.85798413977767</v>
+        <v>96.78669944276697</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>94.3383662579507</v>
+        <v>94.41876019701117</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>94.9442229099196</v>
+        <v>94.84255248284407</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>95.07534694417343</v>
+        <v>95.08304916182549</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>94.80326277702224</v>
+        <v>94.73941073616498</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>88.85222260562247</v>
+        <v>88.63097761620372</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>91.58617615371969</v>
+        <v>91.72119923220535</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>88.90209689570044</v>
+        <v>88.81205975923287</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>95.31942006496665</v>
+        <v>95.19849162418068</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>90.38508745811284</v>
+        <v>90.44646519363607</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>92.5208682083509</v>
+        <v>92.6598528779364</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>90.95616365242647</v>
+        <v>90.94560646196555</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>93.60570935862128</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>92.31161350005652</v>
+        <v>92.31161350005651</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>96.34922782695061</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>96.33603205042245</v>
+        <v>96.5399259819289</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>93.69115955976153</v>
+        <v>93.51298968718861</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>95.1918866252482</v>
+        <v>95.14886277850211</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>95.70457143300573</v>
+        <v>95.66048220717519</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>94.36228993603909</v>
+        <v>94.297078925332</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>89.88298264875733</v>
+        <v>89.94443640404474</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>92.41524824084884</v>
+        <v>92.25334174527895</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>91.44993008703725</v>
+        <v>91.46639156013198</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>95.52550752232368</v>
+        <v>95.62757927467513</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>91.86195515480591</v>
+        <v>92.00151923597687</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>93.92108012834129</v>
+        <v>93.9678781866069</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>93.4897361691832</v>
+        <v>93.53997452034606</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>98.12309932710885</v>
+        <v>98.0694256275913</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>96.16746029932288</v>
+        <v>96.29050731959678</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>97.04802328965694</v>
+        <v>96.98048914962318</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>97.00769523327088</v>
+        <v>96.98614991920893</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>96.46748363463651</v>
+        <v>96.4052674998523</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>92.79499305702106</v>
+        <v>92.7549017851954</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>94.68076029410061</v>
+        <v>94.65838071903794</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>93.03615513478947</v>
+        <v>93.11211591547263</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>96.97706321241664</v>
+        <v>96.99269619363292</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>93.94204957392759</v>
+        <v>93.87160706769859</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>95.48153066003569</v>
+        <v>95.49914052789228</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>94.63057763417919</v>
+        <v>94.62098383664879</v>
       </c>
     </row>
     <row r="13">
